--- a/Python/src/Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python/src/Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="range names" sheetId="1" r:id="rId1"/>
+    <s:sheet name="writing to cells" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,7 +47,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="dd-mm-yyyy" numFmtId="165"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -77,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -377,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,45 +389,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="n">
-        <v>25</v>
+    <row r="1" spans="1:17">
+      <c s="1" r="A1" t="n">
+        <v>42512.8415002641</v>
       </c>
       <c r="B1" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C1" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E1" t="n">
-        <v>37</v>
-      </c>
-      <c r="F1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G1" t="n">
-        <v>43</v>
-      </c>
-      <c r="H1" t="n">
-        <v>46</v>
-      </c>
-      <c r="I1" t="n">
-        <v>49</v>
-      </c>
-      <c r="J1" t="n">
-        <v>52</v>
-      </c>
-      <c r="K1" t="n">
-        <v>55</v>
-      </c>
-      <c r="L1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="n">
         <v>25</v>
       </c>
@@ -461,7 +441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17">
       <c r="A3" t="n">
         <v>25</v>
       </c>
@@ -499,7 +479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:17">
       <c r="A4" t="n">
         <v>25</v>
       </c>
@@ -537,7 +517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:17">
       <c r="A5" t="n">
         <v>25</v>
       </c>
@@ -575,7 +555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:17">
       <c r="A6" t="n">
         <v>25</v>
       </c>
@@ -613,159 +593,107 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="n">
+    <row r="7" spans="1:17">
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
         <v>25</v>
       </c>
-      <c r="B7" t="n">
-        <v>28</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>34</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
-        <v>43</v>
-      </c>
       <c r="H7" t="n">
-        <v>46</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K7" t="n">
-        <v>55</v>
-      </c>
-      <c r="L7" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="n">
+        <v>121</v>
+      </c>
+      <c r="N7" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
         <v>25</v>
       </c>
-      <c r="B8" t="n">
-        <v>28</v>
-      </c>
-      <c r="C8" t="n">
-        <v>31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>34</v>
-      </c>
-      <c r="E8" t="n">
-        <v>37</v>
-      </c>
-      <c r="F8" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" t="n">
-        <v>43</v>
-      </c>
       <c r="H8" t="n">
-        <v>46</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49</v>
-      </c>
-      <c r="J8" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
-      </c>
-      <c r="L8" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="n">
+        <v>121</v>
+      </c>
+      <c r="N8" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
         <v>25</v>
       </c>
-      <c r="B9" t="n">
-        <v>28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>34</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37</v>
-      </c>
-      <c r="F9" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43</v>
-      </c>
       <c r="H9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I9" t="n">
-        <v>49</v>
-      </c>
-      <c r="J9" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K9" t="n">
-        <v>55</v>
-      </c>
-      <c r="L9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="n">
+        <v>121</v>
+      </c>
+      <c r="N9" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
         <v>25</v>
       </c>
-      <c r="B10" t="n">
-        <v>28</v>
-      </c>
-      <c r="C10" t="n">
-        <v>31</v>
-      </c>
-      <c r="D10" t="n">
-        <v>34</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" t="n">
-        <v>43</v>
-      </c>
       <c r="H10" t="n">
-        <v>46</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K10" t="n">
-        <v>55</v>
-      </c>
-      <c r="L10" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>121</v>
+      </c>
+      <c r="N10" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>121</v>
+      </c>
+      <c r="N11" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -794,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -823,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -852,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -881,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -910,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -939,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -968,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -997,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>0</v>
       </c>

--- a/Python/src/Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python/src/Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -391,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c s="1" r="A1" t="n">
-        <v>42512.8415002641</v>
+        <v>42532.43885378238</v>
       </c>
       <c r="B1" t="n">
         <v>42</v>
